--- a/KẾ TOÁN - THÁI HẰNG 26/CÔNG NỢ/Công nợ đại lý Cường Oanh.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/CÔNG NỢ/Công nợ đại lý Cường Oanh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20400" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Kết luận: </t>
   </si>
   <si>
-    <t>Theo giá trị hợp đồng là: 300.000.000*38%+300.000.000</t>
-  </si>
-  <si>
     <t>Công ty đã xuất hàng cho Đại lý Cường Oanh là</t>
   </si>
   <si>
@@ -159,18 +156,9 @@
     <t>Vậy tổng tiền hàng đã xuất cho đại lý là:</t>
   </si>
   <si>
-    <t>Vậy số hàng công ty còn nợ Đại lý Cường Oanh sau triết khấu là</t>
-  </si>
-  <si>
-    <t>Số tiền theo hợp đồng đại lý phải thanh toán là:</t>
-  </si>
-  <si>
     <t>Số tiền đại lý Cường Oanh đã thanh toán cho Cty Nanomilk đến 18/3/2020</t>
   </si>
   <si>
-    <t>Vậy số tiền Đại lý Cường Oanh còn phải thanh toán cho Cty Nanomilk là:</t>
-  </si>
-  <si>
     <t>Người lập biểu</t>
   </si>
   <si>
@@ -181,6 +169,15 @@
   </si>
   <si>
     <t>Nguyễn Tiến Lâm</t>
+  </si>
+  <si>
+    <t>Số tiền chiết khấu 38%</t>
+  </si>
+  <si>
+    <t>Tổng số tiền hàng công ty phải trả cho đại lý Cường Oanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -600,7 +597,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -689,12 +686,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
@@ -762,6 +754,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma [0] 2" xfId="2"/>
@@ -1067,15 +1061,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -1125,92 +1121,92 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="67" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="54" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1231,7 @@
       <c r="K6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="16" t="s">
         <v>20</v>
       </c>
@@ -1254,7 +1250,7 @@
       <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="55"/>
+      <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -1910,19 +1906,19 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
-      <c r="R23" s="47">
+      <c r="R23" s="44">
         <v>6770400</v>
       </c>
       <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="47">
         <v>473</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="30" t="s">
         <v>36</v>
       </c>
@@ -1930,38 +1926,40 @@
         <v>25</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="46" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="31">
         <v>24</v>
       </c>
       <c r="I24" s="32">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="J24" s="33">
-        <v>5400000</v>
+        <f>I24*H24</f>
+        <v>6120000</v>
       </c>
       <c r="K24" s="24">
         <v>0.38</v>
       </c>
       <c r="L24" s="34">
-        <v>3348000</v>
+        <f>J24*(1-K24)</f>
+        <v>3794400</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
-      <c r="R24" s="47">
+      <c r="R24" s="44">
         <v>3348000</v>
       </c>
       <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="30" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="46" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="31">
@@ -1992,29 +1990,31 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
-      <c r="R25" s="47">
+      <c r="R25" s="44">
         <v>6770400</v>
       </c>
       <c r="S25" s="25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="35">
-        <v>200970000</v>
+        <f>SUM(J7:J25)</f>
+        <v>201690000</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="26">
-        <v>119389500.00000001</v>
+        <f>SUM(L7:L25)</f>
+        <v>119835900.00000001</v>
       </c>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
@@ -2071,19 +2071,14 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="37">
-        <f>300000000*38%+300000000</f>
-        <v>414000000</v>
-      </c>
+      <c r="J29" s="37"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -2098,7 +2093,7 @@
       <c r="A30" s="14"/>
       <c r="B30" s="6"/>
       <c r="C30" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2108,7 +2103,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="38">
         <f>J26</f>
-        <v>200970000</v>
+        <v>201690000</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -2124,7 +2119,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="6"/>
       <c r="C31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2149,7 +2144,7 @@
       <c r="A32" s="14"/>
       <c r="B32" s="6"/>
       <c r="C32" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -2159,7 +2154,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="40">
         <f>J30-J31</f>
-        <v>191670000</v>
+        <v>192390000</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -2172,61 +2167,59 @@
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="43">
-        <f>J29-J32</f>
-        <v>222330000</v>
-      </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="42">
+        <v>105000000</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="44">
-        <v>300000000</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="70">
+        <f>J33*38%</f>
+        <v>39900000</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2234,8 +2227,9 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="44">
-        <v>105000000</v>
+      <c r="J35" s="70">
+        <f>J33+J34</f>
+        <v>144900000</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -2248,51 +2242,52 @@
       <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="45">
-        <f>J34-J35</f>
-        <v>195000000</v>
-      </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
+      <c r="A37" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
@@ -2316,29 +2311,25 @@
       <c r="S38" s="14"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -2404,102 +2395,60 @@
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="A43" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A3:S3"/>
-    <mergeCell ref="M45:S45"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A43:H43"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
